--- a/配置表/UnitAvatar.xlsx
+++ b/配置表/UnitAvatar.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\gitee\danmufishdouyin\配置表\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\gitee\danmufishKSGit\配置表\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D80039EA-7494-4BA8-B9E9-9B8C1F62AE55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EB15076-83E5-4A38-8530-7265284122A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -62,8 +62,8 @@
             <charset val="134"/>
           </rPr>
           <t>0:不显示
-1:不显示
-2:赛季奖励
+1:不展示
+2:音符掉落
 3:拍卖获得</t>
         </r>
       </text>
@@ -753,9 +753,6 @@
     <t>RoleAvatar/Unit_602</t>
   </si>
   <si>
-    <t>元气仙女小玉兔，中秋活动限时获得</t>
-  </si>
-  <si>
     <t>小黑兔</t>
   </si>
   <si>
@@ -763,9 +760,6 @@
   </si>
   <si>
     <t>RoleAvatar/Unit_603</t>
-  </si>
-  <si>
-    <t>高冷仙女小黑兔，中秋活动隐藏角色</t>
   </si>
   <si>
     <t>六娃</t>
@@ -1009,6 +1003,14 @@
   </si>
   <si>
     <t>粽子小精灵，小镁铝</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>元气仙女小玉兔</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>高冷仙女小黑兔</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1373,8 +1375,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H82"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E45" sqref="E45"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="H68" sqref="H68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1416,7 +1418,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>8</v>
@@ -1656,7 +1658,7 @@
         <v>1</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D11">
         <v>99999999</v>
@@ -1708,7 +1710,7 @@
         <v>1</v>
       </c>
       <c r="C13">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D13">
         <v>99999999</v>
@@ -1754,7 +1756,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" s="3" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.15">
@@ -1765,7 +1767,7 @@
         <v>2</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D16">
         <v>99999999</v>
@@ -1869,7 +1871,7 @@
         <v>2</v>
       </c>
       <c r="C20">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D20">
         <v>99999999</v>
@@ -1895,7 +1897,7 @@
         <v>2</v>
       </c>
       <c r="C21">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D21">
         <v>99999999</v>
@@ -2389,27 +2391,27 @@
         <v>2</v>
       </c>
       <c r="C40">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D40">
         <v>99999999</v>
       </c>
       <c r="E40" t="s">
+        <v>280</v>
+      </c>
+      <c r="F40" t="s">
+        <v>281</v>
+      </c>
+      <c r="G40" t="s">
         <v>282</v>
       </c>
-      <c r="F40" t="s">
+      <c r="H40" t="s">
         <v>283</v>
-      </c>
-      <c r="G40" t="s">
-        <v>284</v>
-      </c>
-      <c r="H40" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A41" s="3" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.15">
@@ -2420,7 +2422,7 @@
         <v>3</v>
       </c>
       <c r="C42">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D42">
         <v>99999999</v>
@@ -2498,7 +2500,7 @@
         <v>3</v>
       </c>
       <c r="C45">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D45">
         <v>99999999</v>
@@ -2576,7 +2578,7 @@
         <v>3</v>
       </c>
       <c r="C48">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D48">
         <v>99999999</v>
@@ -2784,7 +2786,7 @@
         <v>3</v>
       </c>
       <c r="C56">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D56">
         <v>99999999</v>
@@ -2940,22 +2942,22 @@
         <v>3</v>
       </c>
       <c r="C62">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D62">
         <v>99999999</v>
       </c>
       <c r="E62" t="s">
+        <v>284</v>
+      </c>
+      <c r="F62" t="s">
+        <v>285</v>
+      </c>
+      <c r="G62" t="s">
         <v>286</v>
       </c>
-      <c r="F62" t="s">
+      <c r="H62" t="s">
         <v>287</v>
-      </c>
-      <c r="G62" t="s">
-        <v>288</v>
-      </c>
-      <c r="H62" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.15">
@@ -2966,22 +2968,22 @@
         <v>3</v>
       </c>
       <c r="C63">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D63">
         <v>99999999</v>
       </c>
       <c r="E63" t="s">
+        <v>288</v>
+      </c>
+      <c r="F63" t="s">
+        <v>289</v>
+      </c>
+      <c r="G63" t="s">
         <v>290</v>
       </c>
-      <c r="F63" t="s">
+      <c r="H63" t="s">
         <v>291</v>
-      </c>
-      <c r="G63" t="s">
-        <v>292</v>
-      </c>
-      <c r="H63" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.15">
@@ -2992,27 +2994,27 @@
         <v>3</v>
       </c>
       <c r="C64">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D64">
         <v>99999999</v>
       </c>
       <c r="E64" t="s">
+        <v>292</v>
+      </c>
+      <c r="F64" t="s">
+        <v>293</v>
+      </c>
+      <c r="G64" t="s">
         <v>294</v>
       </c>
-      <c r="F64" t="s">
+      <c r="H64" t="s">
         <v>295</v>
-      </c>
-      <c r="G64" t="s">
-        <v>296</v>
-      </c>
-      <c r="H64" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A65" s="3" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.15">
@@ -3049,7 +3051,7 @@
         <v>4</v>
       </c>
       <c r="C67">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D67">
         <v>99999999</v>
@@ -3063,8 +3065,8 @@
       <c r="G67" t="s">
         <v>225</v>
       </c>
-      <c r="H67" t="s">
-        <v>226</v>
+      <c r="H67" s="3" t="s">
+        <v>306</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.15">
@@ -3081,16 +3083,16 @@
         <v>99999999</v>
       </c>
       <c r="E68" t="s">
+        <v>226</v>
+      </c>
+      <c r="F68" t="s">
         <v>227</v>
       </c>
-      <c r="F68" t="s">
+      <c r="G68" t="s">
         <v>228</v>
       </c>
-      <c r="G68" t="s">
-        <v>229</v>
-      </c>
-      <c r="H68" t="s">
-        <v>230</v>
+      <c r="H68" s="3" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.15">
@@ -3107,16 +3109,16 @@
         <v>99999999</v>
       </c>
       <c r="E69" t="s">
+        <v>229</v>
+      </c>
+      <c r="F69" t="s">
+        <v>230</v>
+      </c>
+      <c r="G69" t="s">
         <v>231</v>
       </c>
-      <c r="F69" t="s">
+      <c r="H69" t="s">
         <v>232</v>
-      </c>
-      <c r="G69" t="s">
-        <v>233</v>
-      </c>
-      <c r="H69" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.15">
@@ -3133,16 +3135,16 @@
         <v>99999999</v>
       </c>
       <c r="E70" t="s">
+        <v>233</v>
+      </c>
+      <c r="F70" t="s">
+        <v>234</v>
+      </c>
+      <c r="G70" t="s">
         <v>235</v>
       </c>
-      <c r="F70" t="s">
+      <c r="H70" t="s">
         <v>236</v>
-      </c>
-      <c r="G70" t="s">
-        <v>237</v>
-      </c>
-      <c r="H70" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.15">
@@ -3159,16 +3161,16 @@
         <v>99999999</v>
       </c>
       <c r="E71" t="s">
+        <v>237</v>
+      </c>
+      <c r="F71" t="s">
+        <v>238</v>
+      </c>
+      <c r="G71" t="s">
         <v>239</v>
       </c>
-      <c r="F71" t="s">
+      <c r="H71" t="s">
         <v>240</v>
-      </c>
-      <c r="G71" t="s">
-        <v>241</v>
-      </c>
-      <c r="H71" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.15">
@@ -3185,16 +3187,16 @@
         <v>99999999</v>
       </c>
       <c r="E72" t="s">
+        <v>241</v>
+      </c>
+      <c r="F72" t="s">
+        <v>242</v>
+      </c>
+      <c r="G72" t="s">
         <v>243</v>
       </c>
-      <c r="F72" t="s">
+      <c r="H72" t="s">
         <v>244</v>
-      </c>
-      <c r="G72" t="s">
-        <v>245</v>
-      </c>
-      <c r="H72" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.15">
@@ -3211,16 +3213,16 @@
         <v>99999999</v>
       </c>
       <c r="E73" t="s">
+        <v>245</v>
+      </c>
+      <c r="F73" t="s">
+        <v>246</v>
+      </c>
+      <c r="G73" t="s">
         <v>247</v>
       </c>
-      <c r="F73" t="s">
+      <c r="H73" t="s">
         <v>248</v>
-      </c>
-      <c r="G73" t="s">
-        <v>249</v>
-      </c>
-      <c r="H73" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.15">
@@ -3237,16 +3239,16 @@
         <v>99999999</v>
       </c>
       <c r="E74" t="s">
+        <v>249</v>
+      </c>
+      <c r="F74" t="s">
+        <v>250</v>
+      </c>
+      <c r="G74" t="s">
         <v>251</v>
       </c>
-      <c r="F74" t="s">
+      <c r="H74" t="s">
         <v>252</v>
-      </c>
-      <c r="G74" t="s">
-        <v>253</v>
-      </c>
-      <c r="H74" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.15">
@@ -3263,16 +3265,16 @@
         <v>99999999</v>
       </c>
       <c r="E75" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="F75" t="s">
+        <v>258</v>
+      </c>
+      <c r="G75" t="s">
         <v>259</v>
       </c>
-      <c r="F75" t="s">
-        <v>260</v>
-      </c>
-      <c r="G75" t="s">
-        <v>261</v>
-      </c>
       <c r="H75" s="3" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.15">
@@ -3289,16 +3291,16 @@
         <v>99999999</v>
       </c>
       <c r="E76" t="s">
+        <v>260</v>
+      </c>
+      <c r="F76" t="s">
+        <v>261</v>
+      </c>
+      <c r="G76" t="s">
         <v>262</v>
       </c>
-      <c r="F76" t="s">
-        <v>263</v>
-      </c>
-      <c r="G76" t="s">
-        <v>264</v>
-      </c>
       <c r="H76" s="3" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.15">
@@ -3309,22 +3311,22 @@
         <v>4</v>
       </c>
       <c r="C77">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D77">
         <v>99999999</v>
       </c>
       <c r="E77" t="s">
+        <v>271</v>
+      </c>
+      <c r="F77" t="s">
+        <v>272</v>
+      </c>
+      <c r="G77" t="s">
         <v>273</v>
       </c>
-      <c r="F77" t="s">
-        <v>274</v>
-      </c>
-      <c r="G77" t="s">
-        <v>275</v>
-      </c>
       <c r="H77" s="3" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.15">
@@ -3335,22 +3337,22 @@
         <v>4</v>
       </c>
       <c r="C78">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D78">
         <v>99999999</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F78" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="G78" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="H78" s="3" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.15">
@@ -3367,16 +3369,16 @@
         <v>99999999</v>
       </c>
       <c r="E79" t="s">
+        <v>263</v>
+      </c>
+      <c r="F79" t="s">
+        <v>264</v>
+      </c>
+      <c r="G79" t="s">
         <v>265</v>
       </c>
-      <c r="F79" t="s">
-        <v>266</v>
-      </c>
-      <c r="G79" t="s">
-        <v>267</v>
-      </c>
       <c r="H79" s="3" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.15">
@@ -3387,22 +3389,22 @@
         <v>4</v>
       </c>
       <c r="C80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D80">
         <v>99999999</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="F80" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G80" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="H80" s="3" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.15">
@@ -3413,27 +3415,27 @@
         <v>4</v>
       </c>
       <c r="C81">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D81">
         <v>99999999</v>
       </c>
       <c r="E81" t="s">
+        <v>274</v>
+      </c>
+      <c r="F81" t="s">
+        <v>275</v>
+      </c>
+      <c r="G81" t="s">
         <v>276</v>
       </c>
-      <c r="F81" t="s">
+      <c r="H81" t="s">
         <v>277</v>
-      </c>
-      <c r="G81" t="s">
-        <v>278</v>
-      </c>
-      <c r="H81" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A82" s="3" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B82">
         <v>4</v>
@@ -3445,16 +3447,16 @@
         <v>99999999</v>
       </c>
       <c r="E82" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="F82" t="s">
+        <v>254</v>
+      </c>
+      <c r="G82" t="s">
         <v>255</v>
       </c>
-      <c r="F82" t="s">
+      <c r="H82" s="3" t="s">
         <v>256</v>
-      </c>
-      <c r="G82" t="s">
-        <v>257</v>
-      </c>
-      <c r="H82" s="3" t="s">
-        <v>258</v>
       </c>
     </row>
   </sheetData>
